--- a/Floorplan_signs.xlsx
+++ b/Floorplan_signs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/ihuipen_tudelft_nl/Documents/Documenten/1. UNI/3. Industrial Ecology/Year 2/ABM/Visual studio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{2A1021D8-812B-432B-8AF0-6F8521A85DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06CD7EB3-3D6F-4724-BD99-5D8D8DA036FE}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{2A1021D8-812B-432B-8AF0-6F8521A85DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00F6C2F7-164B-4606-8411-1D51579280B7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <v>3</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -784,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>4</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -900,9 +900,6 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
         <v>4</v>
       </c>
       <c r="AF5">
@@ -986,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2044,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2136,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
         <v>4</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -2356,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2368,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
